--- a/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,73; 48,16</t>
+          <t>36,91; 48,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,76; 61,02</t>
+          <t>48,43; 60,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,38; 99,94</t>
+          <t>97,05; 99,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,52; 57,47</t>
+          <t>44,35; 56,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,61; 72,28</t>
+          <t>61,69; 72,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,64; 100,0</t>
+          <t>98,49; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,81; 50,42</t>
+          <t>41,95; 50,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,89; 64,99</t>
+          <t>56,75; 65,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,25; 99,85</t>
+          <t>98,4; 99,86</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,57; 49,83</t>
+          <t>40,56; 49,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,65; 57,59</t>
+          <t>47,75; 56,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,67; 61,28</t>
+          <t>52,64; 61,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,8; 98,59</t>
+          <t>93,76; 98,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,61; 66,13</t>
+          <t>57,18; 66,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,05; 73,66</t>
+          <t>65,72; 73,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,97; 74,61</t>
+          <t>66,67; 74,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,65; 99,02</t>
+          <t>96,5; 99,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,41; 56,71</t>
+          <t>50,55; 56,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,11; 64,21</t>
+          <t>58,08; 64,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61,0; 66,74</t>
+          <t>60,91; 67,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,05; 98,44</t>
+          <t>95,87; 98,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,76; 50,74</t>
+          <t>38,51; 50,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,62; 64,43</t>
+          <t>54,16; 64,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,64; 57,36</t>
+          <t>46,98; 57,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>96,35; 99,39</t>
+          <t>96,71; 99,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,6; 72,82</t>
+          <t>62,53; 72,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,23; 73,51</t>
+          <t>62,71; 73,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,03; 66,3</t>
+          <t>56,5; 67,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,5; 98,25</t>
+          <t>94,66; 98,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,76; 60,54</t>
+          <t>52,47; 60,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,85; 67,64</t>
+          <t>60,27; 67,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,96; 60,43</t>
+          <t>52,96; 60,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,19; 98,57</t>
+          <t>96,27; 98,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,32; 56,14</t>
+          <t>45,96; 55,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,76; 63,49</t>
+          <t>55,39; 63,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,18; 62,74</t>
+          <t>52,3; 62,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,44</t>
+          <t>96,64; 99,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,57; 73,09</t>
+          <t>63,68; 72,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,02; 76,85</t>
+          <t>69,97; 76,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,14; 74,82</t>
+          <t>65,53; 74,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,17; 96,18</t>
+          <t>79,92; 95,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,35; 63,49</t>
+          <t>56,19; 63,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,13; 69,3</t>
+          <t>63,9; 69,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,11; 67,45</t>
+          <t>60,38; 67,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,1; 97,01</t>
+          <t>87,16; 97,0</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,53; 54,71</t>
+          <t>41,63; 55,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,6; 62,61</t>
+          <t>48,74; 62,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,33; 58,88</t>
+          <t>45,71; 59,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,36; 99,92</t>
+          <t>98,25; 99,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,94; 68,4</t>
+          <t>55,57; 68,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,55; 86,89</t>
+          <t>76,67; 86,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,03; 67,25</t>
+          <t>54,92; 67,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,79</t>
+          <t>98,4; 99,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,41; 59,99</t>
+          <t>49,96; 59,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64,26; 73,5</t>
+          <t>64,15; 73,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52,13; 61,37</t>
+          <t>51,55; 61,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,83; 99,78</t>
+          <t>98,8; 99,76</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,06; 56,03</t>
+          <t>44,12; 55,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>56,55; 68,33</t>
+          <t>57,07; 69,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,71; 54,13</t>
+          <t>41,56; 53,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,95</t>
+          <t>94,72; 98,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,36; 69,62</t>
+          <t>58,03; 69,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,58; 82,43</t>
+          <t>71,99; 82,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,78; 64,74</t>
+          <t>52,02; 63,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,13; 99,09</t>
+          <t>95,69; 99,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,19; 61,47</t>
+          <t>52,75; 61,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66,16; 74,1</t>
+          <t>65,55; 73,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,2; 57,95</t>
+          <t>48,49; 57,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>96,15; 98,78</t>
+          <t>96,05; 98,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,54; 48,87</t>
+          <t>40,23; 48,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,7; 61,64</t>
+          <t>53,68; 61,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,84; 48,19</t>
+          <t>39,71; 47,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,06; 98,05</t>
+          <t>95,18; 98,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,11; 63,96</t>
+          <t>56,03; 63,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,78; 71,93</t>
+          <t>64,9; 72,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,29; 58,75</t>
+          <t>50,94; 58,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,12; 97,95</t>
+          <t>94,97; 97,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,73; 55,39</t>
+          <t>49,64; 55,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,1; 65,95</t>
+          <t>60,37; 65,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,82; 52,47</t>
+          <t>46,53; 51,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,57; 97,59</t>
+          <t>95,67; 97,73</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,3; 53,47</t>
+          <t>46,03; 53,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,66</t>
+          <t>43,21; 50,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,05; 52,88</t>
+          <t>45,73; 53,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>91,06; 95,27</t>
+          <t>91,32; 95,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>57,64; 64,47</t>
+          <t>57,21; 64,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,97; 62,1</t>
+          <t>54,91; 61,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,2; 63,1</t>
+          <t>56,12; 63,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91,15; 94,64</t>
+          <t>91,06; 94,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>53,21; 58,31</t>
+          <t>52,81; 57,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50,31; 55,22</t>
+          <t>50,06; 54,93</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,22; 57,36</t>
+          <t>52,41; 57,14</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>91,78; 94,6</t>
+          <t>91,89; 94,58</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>45,43; 48,88</t>
+          <t>45,35; 48,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>53,67; 57,07</t>
+          <t>53,46; 57,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49,28; 52,72</t>
+          <t>49,28; 52,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,95; 97,46</t>
+          <t>95,94; 97,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>60,35; 63,68</t>
+          <t>60,37; 63,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,34; 70,4</t>
+          <t>67,09; 70,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>60,57; 63,93</t>
+          <t>60,71; 64,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,7</t>
+          <t>94,46; 96,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,91</t>
+          <t>53,39; 55,93</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60,88; 63,39</t>
+          <t>60,89; 63,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,74; 58,03</t>
+          <t>55,65; 58,0</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>95,66; 96,85</t>
+          <t>95,65; 96,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,67%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>66,99%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>68,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>63,51%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,91; 48,81</t>
+          <t>36,27; 48,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,11; 65,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,43; 60,95</t>
+          <t>46,29; 58,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>97,05; 99,94</t>
+          <t>52,95; 65,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,35; 56,86</t>
+          <t>43,53; 56,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,81; 82,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,69; 72,72</t>
+          <t>59,56; 70,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>98,49; 100,0</t>
+          <t>62,77; 72,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,95; 50,55</t>
+          <t>41,34; 49,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,35; 72,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,75; 65,05</t>
+          <t>54,7; 63,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,4; 99,86</t>
+          <t>59,35; 67,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>40,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>51,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,48%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>64,06%</t>
+          <t>63,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 49,57</t>
+          <t>36,02; 44,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,75; 56,88</t>
+          <t>46,77; 55,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,64; 61,27</t>
+          <t>51,52; 60,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,76; 98,53</t>
+          <t>28,26; 38,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,18; 66,12</t>
+          <t>55,36; 64,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,72; 73,92</t>
+          <t>64,09; 72,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,67; 74,54</t>
+          <t>65,67; 73,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,5; 99,01</t>
+          <t>34,1; 41,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 56,85</t>
+          <t>47,15; 53,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,08; 64,47</t>
+          <t>56,65; 63,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,91; 67,28</t>
+          <t>60,1; 66,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>95,87; 98,48</t>
+          <t>32,36; 38,7</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
+          <t>51,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,38%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,53%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64,0%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>43,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,51; 50,36</t>
+          <t>37,64; 49,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,16; 64,92</t>
+          <t>53,58; 64,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,98; 57,56</t>
+          <t>45,94; 56,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>96,71; 99,4</t>
+          <t>35,39; 45,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 72,8</t>
+          <t>62,24; 72,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,71; 73,49</t>
+          <t>61,47; 72,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,5; 67,15</t>
+          <t>55,56; 66,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,66; 98,3</t>
+          <t>40,56; 49,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>52,47; 60,29</t>
+          <t>51,87; 59,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,27; 67,77</t>
+          <t>59,49; 67,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,96; 60,65</t>
+          <t>52,15; 59,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,53</t>
+          <t>39,81; 46,84</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,87%</t>
+          <t>50,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>56,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>68,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,36%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>59,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66,6%</t>
+          <t>63,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>39,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,96; 55,92</t>
+          <t>45,17; 55,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,39; 63,38</t>
+          <t>51,52; 61,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,3; 62,84</t>
+          <t>50,55; 60,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,64; 99,42</t>
+          <t>33,79; 46,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,68; 72,66</t>
+          <t>64,06; 73,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,97; 76,78</t>
+          <t>65,18; 74,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,53; 74,82</t>
+          <t>65,04; 74,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,92; 95,71</t>
+          <t>21,94; 48,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,19; 63,45</t>
+          <t>56,22; 63,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,9; 69,13</t>
+          <t>59,92; 66,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,38; 67,39</t>
+          <t>59,28; 66,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>87,16; 97,0</t>
+          <t>29,07; 45,72</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>62,17%</t>
+          <t>57,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>9,78%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,63; 55,45</t>
+          <t>37,06; 51,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>48,74; 62,3</t>
+          <t>46,31; 60,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,71; 59,33</t>
+          <t>44,45; 58,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,25; 99,92</t>
+          <t>7,12; 14,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,57; 68,74</t>
+          <t>50,57; 64,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,67; 86,8</t>
+          <t>73,39; 84,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,92; 67,62</t>
+          <t>53,89; 66,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,4; 99,79</t>
+          <t>4,96; 12,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,96; 59,88</t>
+          <t>45,08; 55,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64,15; 73,38</t>
+          <t>62,05; 71,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,55; 61,09</t>
+          <t>50,6; 60,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,8; 99,76</t>
+          <t>6,6; 12,4</t>
         </is>
       </c>
     </row>
@@ -1366,52 +1366,52 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>50,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>50,11%</t>
         </is>
       </c>
     </row>
@@ -1434,52 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,56; 53,8</t>
+          <t>38,48; 50,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,72; 98,98</t>
+          <t>44,29; 54,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,03; 69,47</t>
+          <t>57,75; 69,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,99; 82,21</t>
+          <t>71,53; 81,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,02; 63,79</t>
+          <t>50,13; 61,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,69; 99,14</t>
+          <t>45,93; 56,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,75; 61,35</t>
+          <t>52,76; 61,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65,55; 73,83</t>
+          <t>65,34; 73,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,49; 57,39</t>
+          <t>46,39; 55,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>96,05; 98,78</t>
+          <t>46,33; 54,11</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>60,04%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>54,88%</t>
+          <t>54,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>63,22%</t>
+          <t>62,64%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>35,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,23; 48,49</t>
+          <t>36,67; 44,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,68; 61,86</t>
+          <t>53,26; 61,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,71; 47,69</t>
+          <t>38,44; 46,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,18; 98,15</t>
+          <t>18,49; 26,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,03; 63,88</t>
+          <t>54,4; 62,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,9; 72,23</t>
+          <t>64,13; 71,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,94; 58,63</t>
+          <t>49,97; 57,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,97; 97,98</t>
+          <t>25,84; 72,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,64; 55,43</t>
+          <t>47,07; 52,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60,37; 65,56</t>
+          <t>59,89; 64,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,53; 51,99</t>
+          <t>45,53; 51,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,67; 97,73</t>
+          <t>23,86; 59,26</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>59,8%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>41,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,03; 53,94</t>
+          <t>42,38; 49,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,61</t>
+          <t>39,9; 47,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,73; 53,54</t>
+          <t>44,43; 52,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,32</t>
+          <t>10,3; 30,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>57,21; 64,46</t>
+          <t>54,58; 61,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,91; 61,87</t>
+          <t>53,2; 60,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,12; 63,26</t>
+          <t>55,18; 62,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>91,06; 94,72</t>
+          <t>38,18; 44,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,81; 57,95</t>
+          <t>49,68; 54,89</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>50,06; 54,93</t>
+          <t>47,84; 52,71</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,41; 57,14</t>
+          <t>51,12; 55,92</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>91,89; 94,58</t>
+          <t>18,86; 36,69</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>37,22%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>45,35; 48,82</t>
+          <t>42,75; 46,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>53,46; 57,11</t>
+          <t>51,99; 55,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>49,28; 52,77</t>
+          <t>47,85; 51,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,94; 97,42</t>
+          <t>24,3; 34,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>60,37; 63,58</t>
+          <t>58,68; 61,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>67,09; 70,32</t>
+          <t>65,86; 69,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>60,71; 64,02</t>
+          <t>59,57; 62,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>94,46; 96,66</t>
+          <t>37,99; 52,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,93</t>
+          <t>51,31; 53,76</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60,89; 63,36</t>
+          <t>59,62; 62,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>55,65; 58,0</t>
+          <t>54,43; 56,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>95,65; 96,84</t>
+          <t>33,5; 42,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,27; 48,05</t>
+          <t>35,86; 47,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,11; 65,65</t>
+          <t>53,99; 65,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 58,91</t>
+          <t>47,48; 59,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,95; 65,71</t>
+          <t>52,77; 65,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,53; 56,06</t>
+          <t>43,36; 56,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,81; 82,11</t>
+          <t>71,14; 81,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,56; 70,72</t>
+          <t>59,12; 70,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>62,77; 72,31</t>
+          <t>63,09; 72,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,34; 49,94</t>
+          <t>41,5; 50,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64,35; 72,06</t>
+          <t>64,04; 72,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54,7; 63,18</t>
+          <t>54,66; 63,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,35; 67,58</t>
+          <t>59,7; 67,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,02; 44,89</t>
+          <t>35,58; 44,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,77; 55,45</t>
+          <t>46,4; 55,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,52; 60,43</t>
+          <t>51,28; 60,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,26; 38,37</t>
+          <t>27,7; 38,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,36; 64,31</t>
+          <t>55,76; 64,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,09; 72,3</t>
+          <t>63,72; 72,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 73,82</t>
+          <t>65,75; 74,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,1; 41,45</t>
+          <t>34,61; 42,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,15; 53,63</t>
+          <t>47,26; 53,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,65; 63,21</t>
+          <t>56,54; 63,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>60,1; 66,24</t>
+          <t>60,03; 66,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,36; 38,7</t>
+          <t>32,06; 38,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,64; 49,31</t>
+          <t>38,41; 49,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,58; 64,66</t>
+          <t>52,52; 63,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,94; 56,57</t>
+          <t>46,21; 56,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,39; 45,98</t>
+          <t>34,78; 46,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,24; 72,6</t>
+          <t>62,03; 72,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,47; 72,05</t>
+          <t>61,8; 72,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,56; 66,36</t>
+          <t>54,64; 65,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,56; 49,91</t>
+          <t>40,57; 49,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,87; 59,55</t>
+          <t>51,92; 59,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,49; 67,01</t>
+          <t>59,55; 67,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>52,15; 59,9</t>
+          <t>52,38; 59,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,81; 46,84</t>
+          <t>39,8; 46,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,17; 55,46</t>
+          <t>45,42; 56,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,52; 61,92</t>
+          <t>51,3; 62,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 60,94</t>
+          <t>50,54; 60,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,79; 46,76</t>
+          <t>34,28; 48,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,06; 73,13</t>
+          <t>64,24; 73,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,18; 74,33</t>
+          <t>65,31; 74,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,04; 74,43</t>
+          <t>64,89; 74,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 48,59</t>
+          <t>23,3; 48,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56,22; 63,37</t>
+          <t>56,38; 63,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,92; 66,93</t>
+          <t>59,8; 66,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59,28; 66,45</t>
+          <t>58,99; 66,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,07; 45,72</t>
+          <t>29,29; 45,92</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,06; 51,16</t>
+          <t>37,11; 50,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,31; 60,45</t>
+          <t>46,79; 60,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,45; 58,53</t>
+          <t>44,01; 58,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 14,32</t>
+          <t>6,93; 14,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,57; 64,25</t>
+          <t>50,2; 64,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,39; 84,57</t>
+          <t>74,26; 84,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>53,89; 66,53</t>
+          <t>54,13; 66,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,96; 12,9</t>
+          <t>5,19; 13,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,08; 55,43</t>
+          <t>45,57; 55,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,05; 71,37</t>
+          <t>62,47; 71,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,6; 60,11</t>
+          <t>51,36; 60,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 12,4</t>
+          <t>6,72; 12,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,12; 55,86</t>
+          <t>44,03; 56,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,07; 69,36</t>
+          <t>56,41; 68,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 50,92</t>
+          <t>38,6; 51,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>44,29; 54,81</t>
+          <t>44,15; 55,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,75; 69,09</t>
+          <t>57,62; 69,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>71,53; 81,89</t>
+          <t>71,84; 81,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,13; 61,81</t>
+          <t>50,31; 62,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>45,93; 56,1</t>
+          <t>45,74; 55,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,76; 61,26</t>
+          <t>53,1; 61,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65,34; 73,61</t>
+          <t>65,97; 73,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>46,39; 55,14</t>
+          <t>46,58; 55,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>46,33; 54,11</t>
+          <t>46,48; 53,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,67; 44,88</t>
+          <t>37,18; 45,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53,26; 61,58</t>
+          <t>53,25; 61,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,44; 46,56</t>
+          <t>38,49; 46,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,49; 26,04</t>
+          <t>18,39; 26,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,4; 62,26</t>
+          <t>54,53; 62,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,13; 71,54</t>
+          <t>63,52; 71,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,97; 57,74</t>
+          <t>50,07; 57,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,84; 72,29</t>
+          <t>25,77; 68,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,07; 52,73</t>
+          <t>46,97; 52,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>59,89; 64,99</t>
+          <t>59,92; 65,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,53; 51,06</t>
+          <t>45,53; 51,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,86; 59,26</t>
+          <t>23,79; 60,26</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 49,99</t>
+          <t>42,81; 50,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,9; 47,4</t>
+          <t>40,19; 47,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,43; 52,01</t>
+          <t>44,78; 51,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,3; 30,74</t>
+          <t>9,71; 30,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,58; 61,8</t>
+          <t>55,2; 62,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,2; 60,23</t>
+          <t>52,99; 59,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>55,18; 62,42</t>
+          <t>55,22; 62,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,18; 44,53</t>
+          <t>38,46; 44,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,68; 54,89</t>
+          <t>49,84; 55,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47,84; 52,71</t>
+          <t>47,88; 52,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51,12; 55,92</t>
+          <t>51,29; 56,4</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,86; 36,69</t>
+          <t>18,76; 36,55</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,75; 46,14</t>
+          <t>42,58; 46,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,99; 55,77</t>
+          <t>52,23; 55,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,85; 51,38</t>
+          <t>47,97; 51,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,92</t>
+          <t>25,38; 35,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>58,68; 61,95</t>
+          <t>58,74; 62,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>65,86; 69,11</t>
+          <t>65,95; 69,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>59,57; 62,9</t>
+          <t>59,63; 62,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,99; 52,23</t>
+          <t>38,18; 53,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,31; 53,76</t>
+          <t>51,27; 53,79</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>59,62; 62,05</t>
+          <t>59,7; 62,11</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>54,43; 56,78</t>
+          <t>54,38; 56,82</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,5; 42,32</t>
+          <t>33,68; 42,82</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>114264</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176600</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>156140</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>184716</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>129900</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>220466</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>187467</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>197039</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>244164</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>397066</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>343607</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>381755</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97891; 129902</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>159136; 193869</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>139471; 174308</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>164354; 205076</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>113091; 146452</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>204358; 234224</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>170673; 202937</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>182743; 209199</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>221538; 269480</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>372712; 419738</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>318387; 368408</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>358868; 408184</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>198936</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>257810</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>281727</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>170404</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>302759</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>357775</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>365818</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>195407</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>501695</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>615585</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>647545</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>365811</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>175421; 220091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>234562; 281011</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>257737; 304487</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>143613; 197718</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>281009; 323773</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>333722; 379976</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>343945; 387447</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178220; 216602</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>471239; 533153</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>581933; 649922</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>615659; 678078</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>331320; 398531</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>139402</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>190631</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>163356</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>128591</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>226381</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>229991</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>203419</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>157502</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>365783</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>420622</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>366775</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>286093</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>122454; 156988</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>170177; 206939</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>147211; 179554</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>109918; 146020</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>208071; 243022</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>210736; 246257</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>183767; 219750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>141657; 174152</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>339695; 390733</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>396067; 446609</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>343050; 392438</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>264774; 309481</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>180801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>212898</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>205998</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127957</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>255641</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>272015</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>270454</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>183799</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>436443</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>484913</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>476451</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>311756</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>162902; 201761</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>191847; 233370</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>186970; 225539</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>107130; 150249</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>238612; 273807</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>254013; 289851</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>251307; 289436</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110863; 232528</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>411623; 463053</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>456220; 509140</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>446713; 503714</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>230917; 361996</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>88654</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>113792</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>108244</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18011</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>119101</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>174738</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>132005</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24796</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>207756</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>288530</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>240249</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42806</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75441; 103660</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99494; 129092</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92956; 122729</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12381; 25656</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>104256; 133115</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>163068; 185959</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>118319; 145573</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13441; 33888</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>187282; 229025</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>269995; 308914</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>220743; 261206</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29383; 54364</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>135777</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>171526</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>117564</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>133351</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>177536</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>216095</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>154299</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>130596</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>313313</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>387621</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>271864</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>263947</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>119235; 152051</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>154564; 188653</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>101557; 134735</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>119052; 149022</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>160263; 193119</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>201188; 228922</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>137413; 170916</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>117580; 143843</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>291475; 336627</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>365467; 408690</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>249794; 297837</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>244825; 283332</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>252865</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>381907</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>278997</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>137359</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>372392</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>467848</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>373580</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>378430</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>625257</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>849755</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>652577</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>515789</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>228637; 277505</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>352959; 408180</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>252682; 307767</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>114802; 163293</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>348034; 396846</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>440731; 495517</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>346099; 400708</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>218874; 584021</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>588644; 662222</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>812943; 886765</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>613673; 693058</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>350593; 887919</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>343101</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>341037</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>374820</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>204313</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>457060</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>465197</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>485859</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>297225</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>800161</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>806234</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>860679</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>501538</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>318452; 373809</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>313085; 372924</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>348685; 404140</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>90207; 286428</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>432516; 486788</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>436553; 494105</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>456241; 512974</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>276022; 319476</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>761193; 842618</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>767422; 847853</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>823145; 905048</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>308869; 601739</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1716</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2349</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1453801</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1846202</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1686846</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1104702</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2040770</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2404125</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2172901</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1564793</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>3494572</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4250328</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>3859748</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2669494</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1395018; 1518207</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1789667; 1908688</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1628133; 1749665</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>878030; 1217031</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1984896; 2100982</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2346785; 2463521</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2113439; 2230684</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1417449; 1988813</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>3412677; 3580049</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4170243; 4338258</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>3773554; 3942718</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2415351; 3070970</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>